--- a/Results/case3/0.7.xlsx
+++ b/Results/case3/0.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_D91C74290161F84FE72564B74F5DCE3A6745250C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B3149447-C3C6-4C65-AFE9-B7A72BA28C62}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_D91C74290161F84FE72564B74F5DCE3A6745250C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{15DF96C9-DE7B-4756-80E5-FEA5DAA0589D}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="4605" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -329,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.87909999999999999</c:v>
+                  <c:v>0.87880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89529999999999998</c:v>
+                  <c:v>0.90569999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89270000000000005</c:v>
+                  <c:v>0.90329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89229999999999998</c:v>
+                  <c:v>0.90680000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89159999999999995</c:v>
+                  <c:v>0.90310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89180000000000004</c:v>
+                  <c:v>0.90310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89219999999999999</c:v>
+                  <c:v>0.90369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89119999999999999</c:v>
+                  <c:v>0.90459999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89529999999999998</c:v>
+                  <c:v>0.90110000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.87909999999999999</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="C2">
-        <v>0.46939999999999998</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="D2">
-        <v>0.89529999999999998</v>
+        <v>0.90569999999999995</v>
       </c>
       <c r="E2">
-        <v>0.42220000000000002</v>
+        <v>0.42620000000000002</v>
       </c>
       <c r="F2">
-        <v>0.89270000000000005</v>
+        <v>0.90329999999999999</v>
       </c>
       <c r="G2">
-        <v>0.41970000000000002</v>
+        <v>0.42349999999999999</v>
       </c>
       <c r="H2">
-        <v>0.89229999999999998</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="I2">
-        <v>0.4204</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="J2">
-        <v>0.89159999999999995</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="K2">
-        <v>0.42159999999999997</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="L2">
-        <v>0.89180000000000004</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="M2">
-        <v>0.42149999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="N2">
-        <v>0.89219999999999999</v>
+        <v>0.90369999999999995</v>
       </c>
       <c r="O2">
-        <v>0.42059999999999997</v>
+        <v>0.42320000000000002</v>
       </c>
       <c r="P2">
-        <v>0.89119999999999999</v>
+        <v>0.90459999999999996</v>
       </c>
       <c r="Q2">
-        <v>0.42220000000000002</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="R2">
-        <v>0.88029999999999997</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="S2">
-        <v>0.42620000000000002</v>
+        <v>0.43280000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.71909999999999996</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="C3">
-        <v>0.41239999999999999</v>
+        <v>0.4173</v>
       </c>
       <c r="D3">
-        <v>0.63539999999999996</v>
+        <v>0.76439999999999997</v>
       </c>
       <c r="E3">
-        <v>0.1216</v>
+        <v>0.4708</v>
       </c>
       <c r="F3">
-        <v>0.63539999999999996</v>
+        <v>0.77239999999999998</v>
       </c>
       <c r="G3">
-        <v>0.1216</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="H3">
-        <v>0.63529999999999998</v>
+        <v>0.77129999999999999</v>
       </c>
       <c r="I3">
-        <v>0.1217</v>
+        <v>0.52849999999999997</v>
       </c>
       <c r="J3">
-        <v>0.63539999999999996</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="K3">
-        <v>0.12139999999999999</v>
+        <v>0.45390000000000003</v>
       </c>
       <c r="L3">
-        <v>0.63539999999999996</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="M3">
-        <v>0.12139999999999999</v>
+        <v>0.4471</v>
       </c>
       <c r="N3">
-        <v>0.63549999999999995</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="O3">
-        <v>0.1212</v>
+        <v>0.44080000000000003</v>
       </c>
       <c r="P3">
-        <v>0.63549999999999995</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="Q3">
-        <v>0.1212</v>
+        <v>0.50290000000000001</v>
       </c>
       <c r="R3">
-        <v>0.89359999999999995</v>
+        <v>0.90110000000000001</v>
       </c>
       <c r="S3">
-        <v>0.37280000000000002</v>
+        <v>0.4602</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.86539999999999995</v>
+        <v>0.87109999999999999</v>
       </c>
       <c r="C4">
-        <v>0.41549999999999998</v>
+        <v>0.4088</v>
       </c>
       <c r="D4">
-        <v>0.63549999999999995</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="E4">
-        <v>0.1212</v>
+        <v>0.48370000000000002</v>
       </c>
       <c r="F4">
-        <v>0.63549999999999995</v>
+        <v>0.87350000000000005</v>
       </c>
       <c r="G4">
-        <v>0.1212</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="H4">
-        <v>0.63549999999999995</v>
+        <v>0.89639999999999997</v>
       </c>
       <c r="I4">
-        <v>0.1212</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="J4">
-        <v>0.63549999999999995</v>
+        <v>0.87790000000000001</v>
       </c>
       <c r="K4">
-        <v>0.1212</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="L4">
-        <v>0.63549999999999995</v>
+        <v>0.88770000000000004</v>
       </c>
       <c r="M4">
-        <v>0.1212</v>
+        <v>0.41830000000000001</v>
       </c>
       <c r="N4">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="O4">
-        <v>0.1212</v>
+        <v>0.41239999999999999</v>
       </c>
       <c r="P4">
-        <v>0.63549999999999995</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="Q4">
-        <v>0.1212</v>
+        <v>0.41270000000000001</v>
       </c>
       <c r="R4">
-        <v>0.89200000000000002</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S4">
-        <v>0.37990000000000002</v>
+        <v>0.3977</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.73950000000000005</v>
+        <v>0.76459999999999995</v>
       </c>
       <c r="C5">
-        <v>0.4975</v>
+        <v>0.51590000000000003</v>
       </c>
       <c r="D5">
-        <v>0.63549999999999995</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="E5">
-        <v>0.1212</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F5">
-        <v>0.63549999999999995</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="G5">
-        <v>0.1212</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="H5">
-        <v>0.63549999999999995</v>
+        <v>0.89580000000000004</v>
       </c>
       <c r="I5">
-        <v>0.1212</v>
+        <v>0.40629999999999999</v>
       </c>
       <c r="J5">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="K5">
-        <v>0.1212</v>
+        <v>0.42630000000000001</v>
       </c>
       <c r="L5">
-        <v>0.63549999999999995</v>
+        <v>0.88629999999999998</v>
       </c>
       <c r="M5">
-        <v>0.1212</v>
+        <v>0.4138</v>
       </c>
       <c r="N5">
-        <v>0.63549999999999995</v>
+        <v>0.88629999999999998</v>
       </c>
       <c r="O5">
-        <v>0.1212</v>
+        <v>0.41439999999999999</v>
       </c>
       <c r="P5">
-        <v>0.63549999999999995</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="Q5">
-        <v>0.1212</v>
+        <v>0.4128</v>
       </c>
       <c r="R5">
-        <v>0.89529999999999998</v>
+        <v>0.8952</v>
       </c>
       <c r="S5">
-        <v>0.36880000000000002</v>
+        <v>0.39479999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1989,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.71360000000000001</v>
+        <v>0.74970000000000003</v>
       </c>
       <c r="C6">
-        <v>0.46529999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D6">
-        <v>0.63549999999999995</v>
+        <v>0.74</v>
       </c>
       <c r="E6">
-        <v>0.1212</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="F6">
-        <v>0.63549999999999995</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="G6">
-        <v>0.1212</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="H6">
-        <v>0.63549999999999995</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="I6">
-        <v>0.1212</v>
+        <v>0.39290000000000003</v>
       </c>
       <c r="J6">
-        <v>0.63549999999999995</v>
+        <v>0.88759999999999994</v>
       </c>
       <c r="K6">
-        <v>0.1212</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="L6">
-        <v>0.63549999999999995</v>
+        <v>0.88549999999999995</v>
       </c>
       <c r="M6">
-        <v>0.1212</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="N6">
-        <v>0.63549999999999995</v>
+        <v>0.88649999999999995</v>
       </c>
       <c r="O6">
-        <v>0.1212</v>
+        <v>0.4103</v>
       </c>
       <c r="P6">
-        <v>0.63549999999999995</v>
+        <v>0.88870000000000005</v>
       </c>
       <c r="Q6">
-        <v>0.1212</v>
+        <v>0.41039999999999999</v>
       </c>
       <c r="R6">
-        <v>0.8921</v>
+        <v>0.8952</v>
       </c>
       <c r="S6">
-        <v>0.37609999999999999</v>
+        <v>0.39479999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2048,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.63329999999999997</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="C7">
-        <v>0.12970000000000001</v>
+        <v>0.56410000000000005</v>
       </c>
       <c r="D7">
-        <v>0.63549999999999995</v>
+        <v>0.7802</v>
       </c>
       <c r="E7">
-        <v>0.1212</v>
+        <v>0.54520000000000002</v>
       </c>
       <c r="F7">
-        <v>0.63549999999999995</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="G7">
-        <v>0.1212</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="H7">
-        <v>0.63549999999999995</v>
+        <v>0.90029999999999999</v>
       </c>
       <c r="I7">
-        <v>0.1212</v>
+        <v>0.39939999999999998</v>
       </c>
       <c r="J7">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="K7">
-        <v>0.1212</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="L7">
-        <v>0.63549999999999995</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="M7">
-        <v>0.1212</v>
+        <v>0.41389999999999999</v>
       </c>
       <c r="N7">
-        <v>0.63549999999999995</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="O7">
-        <v>0.1212</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="P7">
-        <v>0.63549999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R7">
-        <v>0.89439999999999997</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S7">
-        <v>0.36820000000000003</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.63549999999999995</v>
+        <v>0.76449999999999996</v>
       </c>
       <c r="C8">
-        <v>0.1212</v>
+        <v>0.501</v>
       </c>
       <c r="D8">
-        <v>0.63549999999999995</v>
+        <v>0.77310000000000001</v>
       </c>
       <c r="E8">
-        <v>0.1212</v>
+        <v>0.52949999999999997</v>
       </c>
       <c r="F8">
-        <v>0.63549999999999995</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="G8">
-        <v>0.1212</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="H8">
-        <v>0.63549999999999995</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="I8">
-        <v>0.1212</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="J8">
-        <v>0.63549999999999995</v>
+        <v>0.88580000000000003</v>
       </c>
       <c r="K8">
-        <v>0.1212</v>
+        <v>0.41089999999999999</v>
       </c>
       <c r="L8">
-        <v>0.63549999999999995</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="M8">
-        <v>0.1212</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="N8">
-        <v>0.63549999999999995</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="O8">
-        <v>0.1212</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="P8">
-        <v>0.63549999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R8">
-        <v>0.8921</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S8">
-        <v>0.37609999999999999</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2166,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.63549999999999995</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="C9">
-        <v>0.1212</v>
+        <v>0.48320000000000002</v>
       </c>
       <c r="D9">
-        <v>0.63549999999999995</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="E9">
-        <v>0.1212</v>
+        <v>0.52039999999999997</v>
       </c>
       <c r="F9">
-        <v>0.63549999999999995</v>
+        <v>0.89170000000000005</v>
       </c>
       <c r="G9">
-        <v>0.1212</v>
+        <v>0.4224</v>
       </c>
       <c r="H9">
-        <v>0.63549999999999995</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="I9">
-        <v>0.1212</v>
+        <v>0.3916</v>
       </c>
       <c r="J9">
-        <v>0.63549999999999995</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="K9">
-        <v>0.1212</v>
+        <v>0.4093</v>
       </c>
       <c r="L9">
-        <v>0.63549999999999995</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="M9">
-        <v>0.1212</v>
+        <v>0.4108</v>
       </c>
       <c r="N9">
-        <v>0.63549999999999995</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="O9">
-        <v>0.1212</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="P9">
-        <v>0.63549999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R9">
-        <v>0.89439999999999997</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S9">
-        <v>0.36820000000000003</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.63549999999999995</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="C10">
-        <v>0.1212</v>
+        <v>0.4834</v>
       </c>
       <c r="D10">
-        <v>0.63549999999999995</v>
+        <v>0.77259999999999995</v>
       </c>
       <c r="E10">
-        <v>0.1212</v>
+        <v>0.5302</v>
       </c>
       <c r="F10">
-        <v>0.63549999999999995</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="G10">
-        <v>0.1212</v>
+        <v>0.43730000000000002</v>
       </c>
       <c r="H10">
-        <v>0.63549999999999995</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="I10">
-        <v>0.1212</v>
+        <v>0.42949999999999999</v>
       </c>
       <c r="J10">
-        <v>0.63549999999999995</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="K10">
-        <v>0.1212</v>
+        <v>0.4093</v>
       </c>
       <c r="L10">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M10">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N10">
-        <v>0.63549999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="O10">
-        <v>0.1212</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="P10">
-        <v>0.63549999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R10">
-        <v>0.8921</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S10">
-        <v>0.37609999999999999</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2284,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.63549999999999995</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="C11">
-        <v>0.1212</v>
+        <v>0.4834</v>
       </c>
       <c r="D11">
-        <v>0.63549999999999995</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="E11">
-        <v>0.1212</v>
+        <v>0.53010000000000002</v>
       </c>
       <c r="F11">
-        <v>0.63549999999999995</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="G11">
-        <v>0.1212</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="H11">
-        <v>0.63549999999999995</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="I11">
-        <v>0.1212</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="J11">
-        <v>0.63549999999999995</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="K11">
-        <v>0.1212</v>
+        <v>0.4093</v>
       </c>
       <c r="L11">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M11">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N11">
-        <v>0.63549999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="O11">
-        <v>0.1212</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="P11">
-        <v>0.63549999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R11">
-        <v>0.89439999999999997</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S11">
-        <v>0.36820000000000003</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2343,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.63549999999999995</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="C12">
-        <v>0.1212</v>
+        <v>0.48309999999999997</v>
       </c>
       <c r="D12">
-        <v>0.63549999999999995</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E12">
-        <v>0.1212</v>
+        <v>0.53</v>
       </c>
       <c r="F12">
-        <v>0.63549999999999995</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="G12">
-        <v>0.1212</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="H12">
-        <v>0.63549999999999995</v>
+        <v>0.89680000000000004</v>
       </c>
       <c r="I12">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J12">
-        <v>0.63549999999999995</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="K12">
-        <v>0.1212</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="L12">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M12">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N12">
-        <v>0.63549999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="O12">
-        <v>0.1212</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="P12">
-        <v>0.63549999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q12">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R12">
-        <v>0.8921</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S12">
-        <v>0.37609999999999999</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.63549999999999995</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="C13">
-        <v>0.1212</v>
+        <v>0.4834</v>
       </c>
       <c r="D13">
-        <v>0.63549999999999995</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E13">
-        <v>0.1212</v>
+        <v>0.53</v>
       </c>
       <c r="F13">
-        <v>0.63549999999999995</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="G13">
-        <v>0.1212</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="H13">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I13">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J13">
-        <v>0.63549999999999995</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="K13">
-        <v>0.1212</v>
+        <v>0.4123</v>
       </c>
       <c r="L13">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M13">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N13">
-        <v>0.63549999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="O13">
-        <v>0.1212</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="P13">
-        <v>0.63549999999999995</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R13">
-        <v>0.89439999999999997</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S13">
-        <v>0.36820000000000003</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2461,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.63549999999999995</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="C14">
-        <v>0.1212</v>
+        <v>0.4834</v>
       </c>
       <c r="D14">
-        <v>0.63549999999999995</v>
+        <v>0.7762</v>
       </c>
       <c r="E14">
-        <v>0.1212</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="F14">
-        <v>0.63549999999999995</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="G14">
-        <v>0.1212</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="H14">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I14">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J14">
-        <v>0.63549999999999995</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="K14">
-        <v>0.1212</v>
+        <v>0.4093</v>
       </c>
       <c r="L14">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M14">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N14">
-        <v>0.63549999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="O14">
-        <v>0.1212</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="P14">
-        <v>0.63549999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q14">
-        <v>0.1212</v>
+        <v>0.41110000000000002</v>
       </c>
       <c r="R14">
-        <v>0.8921</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S14">
-        <v>0.37609999999999999</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2520,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.63549999999999995</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="C15">
-        <v>0.1212</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="D15">
-        <v>0.63549999999999995</v>
+        <v>0.7762</v>
       </c>
       <c r="E15">
-        <v>0.1212</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="F15">
-        <v>0.63549999999999995</v>
+        <v>0.86329999999999996</v>
       </c>
       <c r="G15">
-        <v>0.1212</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="H15">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I15">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J15">
-        <v>0.63549999999999995</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="K15">
-        <v>0.1212</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="L15">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M15">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N15">
-        <v>0.63549999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="O15">
-        <v>0.1212</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="P15">
-        <v>0.63549999999999995</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="Q15">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R15">
-        <v>0.89439999999999997</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S15">
-        <v>0.36820000000000003</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2579,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.63549999999999995</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="C16">
-        <v>0.1212</v>
+        <v>0.48309999999999997</v>
       </c>
       <c r="D16">
-        <v>0.63549999999999995</v>
+        <v>0.7762</v>
       </c>
       <c r="E16">
-        <v>0.1212</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="F16">
-        <v>0.63549999999999995</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="G16">
-        <v>0.1212</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="H16">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I16">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J16">
-        <v>0.63549999999999995</v>
+        <v>0.88439999999999996</v>
       </c>
       <c r="K16">
-        <v>0.1212</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="L16">
-        <v>0.63549999999999995</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="M16">
-        <v>0.1212</v>
+        <v>0.41389999999999999</v>
       </c>
       <c r="N16">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="O16">
-        <v>0.1212</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="P16">
-        <v>0.63549999999999995</v>
+        <v>0.8871</v>
       </c>
       <c r="Q16">
-        <v>0.1212</v>
+        <v>0.40789999999999998</v>
       </c>
       <c r="R16">
-        <v>0.8921</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S16">
-        <v>0.37609999999999999</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.63549999999999995</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="C17">
-        <v>0.1212</v>
+        <v>0.4834</v>
       </c>
       <c r="D17">
-        <v>0.63549999999999995</v>
+        <v>0.7762</v>
       </c>
       <c r="E17">
-        <v>0.1212</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="F17">
-        <v>0.63549999999999995</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="G17">
-        <v>0.1212</v>
+        <v>0.4476</v>
       </c>
       <c r="H17">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I17">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J17">
-        <v>0.63549999999999995</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="K17">
-        <v>0.1212</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="L17">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M17">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N17">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="O17">
-        <v>0.1212</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="P17">
-        <v>0.63549999999999995</v>
+        <v>0.8871</v>
       </c>
       <c r="Q17">
-        <v>0.1212</v>
+        <v>0.40789999999999998</v>
       </c>
       <c r="R17">
-        <v>0.89439999999999997</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S17">
-        <v>0.36820000000000003</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2697,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.63549999999999995</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="C18">
-        <v>0.1212</v>
+        <v>0.4834</v>
       </c>
       <c r="D18">
-        <v>0.63549999999999995</v>
+        <v>0.7762</v>
       </c>
       <c r="E18">
-        <v>0.1212</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="F18">
-        <v>0.63549999999999995</v>
+        <v>0.86319999999999997</v>
       </c>
       <c r="G18">
-        <v>0.1212</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="H18">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I18">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J18">
-        <v>0.63549999999999995</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="K18">
-        <v>0.1212</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="L18">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M18">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N18">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="O18">
-        <v>0.1212</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="P18">
-        <v>0.63549999999999995</v>
+        <v>0.8871</v>
       </c>
       <c r="Q18">
-        <v>0.1212</v>
+        <v>0.40789999999999998</v>
       </c>
       <c r="R18">
-        <v>0.8921</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S18">
-        <v>0.37609999999999999</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2756,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.63549999999999995</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="C19">
-        <v>0.1212</v>
+        <v>0.49259999999999998</v>
       </c>
       <c r="D19">
-        <v>0.63549999999999995</v>
+        <v>0.78</v>
       </c>
       <c r="E19">
-        <v>0.1212</v>
+        <v>0.56689999999999996</v>
       </c>
       <c r="F19">
-        <v>0.63549999999999995</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="G19">
-        <v>0.1212</v>
+        <v>0.4476</v>
       </c>
       <c r="H19">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I19">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J19">
-        <v>0.63549999999999995</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="K19">
-        <v>0.1212</v>
+        <v>0.40949999999999998</v>
       </c>
       <c r="L19">
-        <v>0.63549999999999995</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="M19">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N19">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="O19">
-        <v>0.1212</v>
+        <v>0.40770000000000001</v>
       </c>
       <c r="P19">
-        <v>0.63549999999999995</v>
+        <v>0.8871</v>
       </c>
       <c r="Q19">
-        <v>0.1212</v>
+        <v>0.40789999999999998</v>
       </c>
       <c r="R19">
-        <v>0.89439999999999997</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="S19">
-        <v>0.36820000000000003</v>
+        <v>0.39579999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2815,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.63549999999999995</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="C20">
-        <v>0.1212</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="D20">
-        <v>0.63549999999999995</v>
+        <v>0.77610000000000001</v>
       </c>
       <c r="E20">
-        <v>0.1212</v>
+        <v>0.53590000000000004</v>
       </c>
       <c r="F20">
-        <v>0.63549999999999995</v>
+        <v>0.86319999999999997</v>
       </c>
       <c r="G20">
-        <v>0.1212</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="H20">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I20">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J20">
-        <v>0.63549999999999995</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="K20">
-        <v>0.1212</v>
+        <v>0.40949999999999998</v>
       </c>
       <c r="L20">
-        <v>0.63549999999999995</v>
+        <v>0.88549999999999995</v>
       </c>
       <c r="M20">
-        <v>0.1212</v>
+        <v>0.41070000000000001</v>
       </c>
       <c r="N20">
-        <v>0.63549999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="O20">
-        <v>0.1212</v>
+        <v>0.40770000000000001</v>
       </c>
       <c r="P20">
-        <v>0.63549999999999995</v>
+        <v>0.8871</v>
       </c>
       <c r="Q20">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R20">
-        <v>0.8921</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S20">
-        <v>0.37609999999999999</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2874,58 +2874,58 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.63549999999999995</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="C21">
-        <v>0.1212</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="D21">
-        <v>0.63549999999999995</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="E21">
-        <v>0.1212</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="F21">
-        <v>0.63549999999999995</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="G21">
-        <v>0.1212</v>
+        <v>0.4476</v>
       </c>
       <c r="H21">
-        <v>0.63549999999999995</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="I21">
-        <v>0.1212</v>
+        <v>0.4007</v>
       </c>
       <c r="J21">
-        <v>0.63549999999999995</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="K21">
-        <v>0.1212</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="L21">
-        <v>0.63549999999999995</v>
+        <v>0.88549999999999995</v>
       </c>
       <c r="M21">
-        <v>0.1212</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="N21">
-        <v>0.63549999999999995</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="O21">
-        <v>0.1212</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="P21">
-        <v>0.63549999999999995</v>
+        <v>0.8871</v>
       </c>
       <c r="Q21">
-        <v>0.1212</v>
+        <v>0.4078</v>
       </c>
       <c r="R21">
-        <v>0.89439999999999997</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="S21">
-        <v>0.36820000000000003</v>
+        <v>0.39389999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2934,44 +2934,45 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.87909999999999999</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.89529999999999998</v>
+        <v>0.90569999999999995</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.89270000000000005</v>
+        <v>0.90329999999999999</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.89229999999999998</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.89159999999999995</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.89180000000000004</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
-        <v>0.89219999999999999</v>
+        <v>0.90369999999999995</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.89119999999999999</v>
+        <v>0.90459999999999996</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.89529999999999998</v>
+        <v>0.90110000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>